--- a/Project 2/exercise_albb-salaries-2003_version_2.xlsx
+++ b/Project 2/exercise_albb-salaries-2003_version_2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamas\Documents\GitHub\Udactity_Data_foundations_nanodegree\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99822CA5-FC6C-4469-8DC0-EB4DD7324140}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB64F406-7FD2-4D37-A8C7-03DA95E727F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="albb-salaries-2003 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'albb-salaries-2003 (2)'!$A$1:$D$382</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1243,8 +1254,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1379,8 +1390,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1560,6 +1580,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1721,9 +1747,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2078,28 +2105,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D382"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2112,8 +2149,12 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>COUNTIF(D:D,"=Pitcher")</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2126,8 +2167,12 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>COUNTIF(C:C,"&gt;10000000")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2140,8 +2185,12 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>SUMIF(C:C,"&gt;10000000")</f>
+        <v>268702381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2155,7 +2204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2169,7 +2218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2183,7 +2232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2197,7 +2246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2211,7 +2260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2225,7 +2274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2239,7 +2288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2253,7 +2302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2267,7 +2316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2281,7 +2330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2295,7 +2344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2351,7 +2400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2379,7 +2428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2393,7 +2442,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2407,7 +2456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2449,7 +2498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2463,7 +2512,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2477,7 +2526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2491,7 +2540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2547,7 +2596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2561,7 +2610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -2575,7 +2624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2589,7 +2638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2603,7 +2652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2617,7 +2666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2645,7 +2694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2659,7 +2708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2687,7 +2736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -2715,7 +2764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -2743,7 +2792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -2799,7 +2848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -2855,7 +2904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -2883,7 +2932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -2939,7 +2988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2953,7 +3002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -2981,7 +3030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -3009,7 +3058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -3079,7 +3128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -3093,7 +3142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -3107,7 +3156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -3121,7 +3170,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -3135,7 +3184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>68</v>
       </c>
@@ -3163,7 +3212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>68</v>
       </c>
@@ -3191,7 +3240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>68</v>
       </c>
@@ -3219,7 +3268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>68</v>
       </c>
@@ -3275,7 +3324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -3303,7 +3352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -3317,7 +3366,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -3331,7 +3380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3345,7 +3394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -3373,7 +3422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -3387,7 +3436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -3401,7 +3450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -3415,7 +3464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -3429,7 +3478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3457,7 +3506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -3499,7 +3548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>96</v>
       </c>
@@ -3583,7 +3632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>96</v>
       </c>
@@ -3597,7 +3646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>96</v>
       </c>
@@ -3625,7 +3674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>96</v>
       </c>
@@ -3681,7 +3730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -3695,7 +3744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -3709,7 +3758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -3737,7 +3786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -3807,7 +3856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -3821,7 +3870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -3835,7 +3884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -3905,7 +3954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -3919,7 +3968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>128</v>
       </c>
@@ -3947,7 +3996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>128</v>
       </c>
@@ -4003,7 +4052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>128</v>
       </c>
@@ -4017,7 +4066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>128</v>
       </c>
@@ -4031,7 +4080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>128</v>
       </c>
@@ -4045,7 +4094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>128</v>
       </c>
@@ -4059,7 +4108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -4101,7 +4150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>156</v>
       </c>
@@ -4115,7 +4164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>156</v>
       </c>
@@ -4129,7 +4178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>156</v>
       </c>
@@ -4143,7 +4192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>156</v>
       </c>
@@ -4185,7 +4234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -4199,7 +4248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>156</v>
       </c>
@@ -4213,7 +4262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -4241,7 +4290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -4311,7 +4360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>156</v>
       </c>
@@ -4353,7 +4402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>156</v>
       </c>
@@ -4367,7 +4416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -4381,7 +4430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>156</v>
       </c>
@@ -4437,7 +4486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>156</v>
       </c>
@@ -4451,7 +4500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>156</v>
       </c>
@@ -4465,7 +4514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>186</v>
       </c>
@@ -4479,7 +4528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -4493,7 +4542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>186</v>
       </c>
@@ -4549,7 +4598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>186</v>
       </c>
@@ -4563,7 +4612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>186</v>
       </c>
@@ -4577,7 +4626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>186</v>
       </c>
@@ -4605,7 +4654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -4633,7 +4682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -4647,7 +4696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -4675,7 +4724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -4717,7 +4766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -4745,7 +4794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>186</v>
       </c>
@@ -4773,7 +4822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>186</v>
       </c>
@@ -4843,7 +4892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>212</v>
       </c>
@@ -4857,7 +4906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>212</v>
       </c>
@@ -4871,7 +4920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>212</v>
       </c>
@@ -4885,7 +4934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>212</v>
       </c>
@@ -4927,7 +4976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>212</v>
       </c>
@@ -4941,7 +4990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>212</v>
       </c>
@@ -4983,7 +5032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>212</v>
       </c>
@@ -5011,7 +5060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -5025,7 +5074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -5053,7 +5102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -5095,7 +5144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>212</v>
       </c>
@@ -5109,7 +5158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>212</v>
       </c>
@@ -5123,7 +5172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>212</v>
       </c>
@@ -5137,7 +5186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>212</v>
       </c>
@@ -5151,7 +5200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>212</v>
       </c>
@@ -5179,7 +5228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>239</v>
       </c>
@@ -5221,7 +5270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>239</v>
       </c>
@@ -5249,7 +5298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>239</v>
       </c>
@@ -5277,7 +5326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>239</v>
       </c>
@@ -5291,7 +5340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>239</v>
       </c>
@@ -5305,7 +5354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>239</v>
       </c>
@@ -5319,7 +5368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>239</v>
       </c>
@@ -5333,7 +5382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -5347,7 +5396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>239</v>
       </c>
@@ -5389,7 +5438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>239</v>
       </c>
@@ -5417,7 +5466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -5431,7 +5480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -5445,7 +5494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -5487,7 +5536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>239</v>
       </c>
@@ -5543,7 +5592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>266</v>
       </c>
@@ -5585,7 +5634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>266</v>
       </c>
@@ -5599,7 +5648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>266</v>
       </c>
@@ -5655,7 +5704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>266</v>
       </c>
@@ -5669,7 +5718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>266</v>
       </c>
@@ -5697,7 +5746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>266</v>
       </c>
@@ -5711,7 +5760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>266</v>
       </c>
@@ -5753,7 +5802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>266</v>
       </c>
@@ -5767,7 +5816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>266</v>
       </c>
@@ -5781,7 +5830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -5795,7 +5844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -5809,7 +5858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -5837,7 +5886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>266</v>
       </c>
@@ -5851,7 +5900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>266</v>
       </c>
@@ -5935,7 +5984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>293</v>
       </c>
@@ -5991,7 +6040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>293</v>
       </c>
@@ -6005,7 +6054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>293</v>
       </c>
@@ -6019,7 +6068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>293</v>
       </c>
@@ -6033,7 +6082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>293</v>
       </c>
@@ -6047,7 +6096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>293</v>
       </c>
@@ -6103,7 +6152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>293</v>
       </c>
@@ -6117,7 +6166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>293</v>
       </c>
@@ -6131,7 +6180,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>293</v>
       </c>
@@ -6159,7 +6208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>293</v>
       </c>
@@ -6187,7 +6236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -6229,7 +6278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>293</v>
       </c>
@@ -6257,7 +6306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>293</v>
       </c>
@@ -6271,7 +6320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>320</v>
       </c>
@@ -6285,7 +6334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>320</v>
       </c>
@@ -6299,7 +6348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -6313,7 +6362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>320</v>
       </c>
@@ -6341,7 +6390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>320</v>
       </c>
@@ -6355,7 +6404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>320</v>
       </c>
@@ -6369,7 +6418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>320</v>
       </c>
@@ -6411,7 +6460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>320</v>
       </c>
@@ -6439,7 +6488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>320</v>
       </c>
@@ -6453,7 +6502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>320</v>
       </c>
@@ -6481,7 +6530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>320</v>
       </c>
@@ -6537,7 +6586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>320</v>
       </c>
@@ -6593,7 +6642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>320</v>
       </c>
@@ -6607,7 +6656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>320</v>
       </c>
@@ -6621,7 +6670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>320</v>
       </c>
@@ -6635,7 +6684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>320</v>
       </c>
@@ -6677,7 +6726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>348</v>
       </c>
@@ -6691,7 +6740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -6705,7 +6754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>348</v>
       </c>
@@ -6719,7 +6768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>348</v>
       </c>
@@ -6733,7 +6782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>348</v>
       </c>
@@ -6775,7 +6824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>348</v>
       </c>
@@ -6803,7 +6852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>348</v>
       </c>
@@ -6817,7 +6866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>348</v>
       </c>
@@ -6845,7 +6894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>348</v>
       </c>
@@ -6873,7 +6922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>348</v>
       </c>
@@ -6901,7 +6950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>348</v>
       </c>
@@ -6943,7 +6992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>348</v>
       </c>
@@ -6971,7 +7020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>348</v>
       </c>
@@ -6985,7 +7034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>348</v>
       </c>
@@ -7013,7 +7062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>375</v>
       </c>
@@ -7027,7 +7076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>375</v>
       </c>
@@ -7055,7 +7104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>375</v>
       </c>
@@ -7069,7 +7118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>375</v>
       </c>
@@ -7111,7 +7160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>375</v>
       </c>
@@ -7125,7 +7174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>375</v>
       </c>
@@ -7139,7 +7188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>375</v>
       </c>
@@ -7153,7 +7202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>375</v>
       </c>
@@ -7167,7 +7216,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>375</v>
       </c>
@@ -7181,7 +7230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>375</v>
       </c>
@@ -7209,7 +7258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>375</v>
       </c>
@@ -7237,7 +7286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>375</v>
       </c>
@@ -7265,7 +7314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>375</v>
       </c>
@@ -7293,7 +7342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>375</v>
       </c>
@@ -7307,7 +7356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>375</v>
       </c>
@@ -7321,7 +7370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>375</v>
       </c>
@@ -7405,7 +7454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>375</v>
       </c>
@@ -7434,6 +7483,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D382" xr:uid="{A0D637A8-FFB6-4132-BE68-18B25F4B71B8}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Pitcher"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>